--- a/outputs/2023/metric_full_rel-202311.xlsx
+++ b/outputs/2023/metric_full_rel-202311.xlsx
@@ -397,10 +397,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>33.47</v>
+        <v>28.28</v>
       </c>
       <c r="E2">
-        <v>31.42</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="3">
@@ -411,13 +411,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="D3">
-        <v>32.79</v>
+        <v>28.28</v>
       </c>
       <c r="E3">
-        <v>31.56</v>
+        <v>20.36</v>
       </c>
     </row>
     <row r="4">
@@ -428,13 +428,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.09</v>
+        <v>0.41</v>
       </c>
       <c r="D4">
-        <v>31.97</v>
+        <v>27.87</v>
       </c>
       <c r="E4">
-        <v>31.83</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="5">
@@ -445,13 +445,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1.23</v>
+        <v>0.82</v>
       </c>
       <c r="D5">
-        <v>32.38</v>
+        <v>27.87</v>
       </c>
       <c r="E5">
-        <v>31.28</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="6">
@@ -462,13 +462,13 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="D6">
-        <v>32.38</v>
+        <v>28.55</v>
       </c>
       <c r="E6">
-        <v>31.42</v>
+        <v>19.81</v>
       </c>
     </row>
     <row r="7">
@@ -479,13 +479,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.96</v>
+        <v>0.55</v>
       </c>
       <c r="D7">
-        <v>32.24</v>
+        <v>28.83</v>
       </c>
       <c r="E7">
-        <v>31.69</v>
+        <v>19.54</v>
       </c>
     </row>
     <row r="8">
@@ -496,13 +496,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.82</v>
+        <v>0.68</v>
       </c>
       <c r="D8">
-        <v>32.24</v>
+        <v>28.55</v>
       </c>
       <c r="E8">
-        <v>31.83</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="9">
@@ -513,13 +513,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.82</v>
+        <v>0.41</v>
       </c>
       <c r="D9">
-        <v>32.33</v>
+        <v>28.51</v>
       </c>
       <c r="E9">
-        <v>31.65</v>
+        <v>19.92</v>
       </c>
     </row>
     <row r="10">
@@ -533,10 +533,10 @@
         <v>0.82</v>
       </c>
       <c r="D10">
-        <v>32.33</v>
+        <v>28.65</v>
       </c>
       <c r="E10">
-        <v>31.65</v>
+        <v>19.37</v>
       </c>
     </row>
     <row r="11">
@@ -547,13 +547,13 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="D11">
-        <v>31.84</v>
+        <v>28.71</v>
       </c>
       <c r="E11">
-        <v>31.29</v>
+        <v>19.05</v>
       </c>
     </row>
   </sheetData>
@@ -563,7 +563,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G271"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -609,12 +609,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C2">
@@ -627,21 +627,21 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.08</v>
+        <v>17.39</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C3">
@@ -651,24 +651,24 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>15.38</v>
+        <v>17.39</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C4">
@@ -681,21 +681,21 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.08</v>
+        <v>17.39</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C5">
@@ -705,24 +705,24 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>15.38</v>
+        <v>21.74</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C6">
@@ -735,21 +735,21 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.08</v>
+        <v>21.74</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C7">
@@ -762,21 +762,21 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.08</v>
+        <v>21.74</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C8">
@@ -789,21 +789,21 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.08</v>
+        <v>21.74</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C9">
@@ -816,21 +816,21 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.08</v>
+        <v>20.83</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>29.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C10">
@@ -843,21 +843,21 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.08</v>
+        <v>25</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C11">
@@ -867,24 +867,24 @@
         <v>11</v>
       </c>
       <c r="E11">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>15.38</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C12">
@@ -897,21 +897,21 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.09</v>
+        <v>27.27</v>
       </c>
       <c r="G12">
-        <v>43.48</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C13">
@@ -924,21 +924,21 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.09</v>
+        <v>27.27</v>
       </c>
       <c r="G13">
-        <v>43.48</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C14">
@@ -951,21 +951,21 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.09</v>
+        <v>27.27</v>
       </c>
       <c r="G14">
-        <v>43.48</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C15">
@@ -978,21 +978,21 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.43</v>
+        <v>27.27</v>
       </c>
       <c r="G15">
-        <v>39.13</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C16">
@@ -1005,21 +1005,21 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.43</v>
+        <v>27.27</v>
       </c>
       <c r="G16">
-        <v>39.13</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C17">
@@ -1032,21 +1032,21 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.43</v>
+        <v>27.27</v>
       </c>
       <c r="G17">
-        <v>39.13</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C18">
@@ -1059,21 +1059,21 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.43</v>
+        <v>27.27</v>
       </c>
       <c r="G18">
-        <v>39.13</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C19">
@@ -1086,21 +1086,21 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.17</v>
+        <v>27.27</v>
       </c>
       <c r="G19">
-        <v>37.5</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C20">
@@ -1113,21 +1113,21 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.17</v>
+        <v>27.27</v>
       </c>
       <c r="G20">
-        <v>37.5</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C21">
@@ -1140,21 +1140,21 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28</v>
+        <v>27.27</v>
       </c>
       <c r="G21">
-        <v>36</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C22">
@@ -1167,21 +1167,21 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>42.42</v>
+        <v>15.79</v>
       </c>
       <c r="G22">
-        <v>21.21</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C23">
@@ -1191,24 +1191,24 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>39.39</v>
+        <v>15.79</v>
       </c>
       <c r="G23">
-        <v>21.21</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C24">
@@ -1218,24 +1218,24 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>36.36</v>
+        <v>15.79</v>
       </c>
       <c r="G24">
-        <v>21.21</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C25">
@@ -1245,24 +1245,24 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>3.03</v>
+        <v>2.63</v>
       </c>
       <c r="F25">
-        <v>36.36</v>
+        <v>13.16</v>
       </c>
       <c r="G25">
-        <v>24.24</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C26">
@@ -1272,24 +1272,24 @@
         <v>6</v>
       </c>
       <c r="E26">
-        <v>3.03</v>
+        <v>2.63</v>
       </c>
       <c r="F26">
-        <v>36.36</v>
+        <v>13.16</v>
       </c>
       <c r="G26">
-        <v>24.24</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C27">
@@ -1299,24 +1299,24 @@
         <v>7</v>
       </c>
       <c r="E27">
-        <v>3.03</v>
+        <v>5.26</v>
       </c>
       <c r="F27">
-        <v>36.36</v>
+        <v>13.16</v>
       </c>
       <c r="G27">
-        <v>24.24</v>
+        <v>78.95</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C28">
@@ -1326,24 +1326,24 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <v>3.03</v>
+        <v>5.26</v>
       </c>
       <c r="F28">
-        <v>36.36</v>
+        <v>13.16</v>
       </c>
       <c r="G28">
-        <v>24.24</v>
+        <v>78.95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C29">
@@ -1353,24 +1353,24 @@
         <v>9</v>
       </c>
       <c r="E29">
-        <v>3.03</v>
+        <v>2.63</v>
       </c>
       <c r="F29">
-        <v>36.36</v>
+        <v>10.53</v>
       </c>
       <c r="G29">
-        <v>24.24</v>
+        <v>84.20999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C30">
@@ -1380,24 +1380,24 @@
         <v>10</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>5.26</v>
       </c>
       <c r="F30">
-        <v>39.39</v>
+        <v>13.16</v>
       </c>
       <c r="G30">
-        <v>24.24</v>
+        <v>78.95</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C31">
@@ -1407,24 +1407,24 @@
         <v>11</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>5.26</v>
       </c>
       <c r="F31">
-        <v>36.36</v>
+        <v>13.16</v>
       </c>
       <c r="G31">
-        <v>27.27</v>
+        <v>78.95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C32">
@@ -1437,21 +1437,21 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G32">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C33">
@@ -1464,21 +1464,21 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G33">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C34">
@@ -1491,21 +1491,21 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G34">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C35">
@@ -1518,21 +1518,21 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G35">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C36">
@@ -1545,21 +1545,21 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G36">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C37">
@@ -1572,21 +1572,21 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G37">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C38">
@@ -1599,21 +1599,21 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G38">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C39">
@@ -1626,21 +1626,21 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G39">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C40">
@@ -1653,21 +1653,21 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G40">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C41">
@@ -1680,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G41">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C42">
@@ -1707,21 +1707,21 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C43">
@@ -1734,21 +1734,21 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C44">
@@ -1761,21 +1761,21 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C45">
@@ -1788,21 +1788,21 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C46">
@@ -1815,21 +1815,21 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C47">
@@ -1842,21 +1842,21 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C48">
@@ -1869,21 +1869,21 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C49">
@@ -1896,21 +1896,21 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C50">
@@ -1923,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C51">
@@ -1950,21 +1950,21 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C52">
@@ -1977,21 +1977,21 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G52">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C53">
@@ -2004,21 +2004,21 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G53">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C54">
@@ -2031,21 +2031,21 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G54">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C55">
@@ -2058,21 +2058,21 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G55">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C56">
@@ -2082,24 +2082,24 @@
         <v>6</v>
       </c>
       <c r="E56">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>62.96</v>
+        <v>45.45</v>
       </c>
       <c r="G56">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C57">
@@ -2109,24 +2109,24 @@
         <v>7</v>
       </c>
       <c r="E57">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>62.96</v>
+        <v>45.45</v>
       </c>
       <c r="G57">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C58">
@@ -2139,21 +2139,21 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G58">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C59">
@@ -2163,24 +2163,24 @@
         <v>9</v>
       </c>
       <c r="E59">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>62.96</v>
+        <v>45.45</v>
       </c>
       <c r="G59">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C60">
@@ -2193,21 +2193,21 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G60">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C61">
@@ -2217,24 +2217,24 @@
         <v>11</v>
       </c>
       <c r="E61">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>62.96</v>
+        <v>45.45</v>
       </c>
       <c r="G61">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C62">
@@ -2247,21 +2247,21 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G62">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C63">
@@ -2274,21 +2274,21 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G63">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C64">
@@ -2298,24 +2298,24 @@
         <v>4</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="F64">
-        <v>50</v>
+        <v>6.06</v>
       </c>
       <c r="G64">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C65">
@@ -2328,21 +2328,21 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G65">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C66">
@@ -2355,21 +2355,21 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G66">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C67">
@@ -2382,21 +2382,21 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G67">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C68">
@@ -2406,24 +2406,24 @@
         <v>8</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="F68">
-        <v>50</v>
+        <v>6.06</v>
       </c>
       <c r="G68">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C69">
@@ -2436,21 +2436,21 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G69">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C70">
@@ -2463,21 +2463,21 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G70">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C71">
@@ -2490,21 +2490,21 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G71">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C72">
@@ -2517,21 +2517,21 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>54.55</v>
+        <v>16.67</v>
       </c>
       <c r="G72">
-        <v>45.45</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C73">
@@ -2544,21 +2544,21 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>63.64</v>
+        <v>16.67</v>
       </c>
       <c r="G73">
-        <v>36.36</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C74">
@@ -2571,21 +2571,21 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>72.73</v>
+        <v>16.67</v>
       </c>
       <c r="G74">
-        <v>27.27</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C75">
@@ -2598,21 +2598,21 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>72.73</v>
+        <v>16.67</v>
       </c>
       <c r="G75">
-        <v>27.27</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C76">
@@ -2625,21 +2625,21 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>72.73</v>
+        <v>16.67</v>
       </c>
       <c r="G76">
-        <v>27.27</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C77">
@@ -2649,24 +2649,24 @@
         <v>7</v>
       </c>
       <c r="E77">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>54.55</v>
+        <v>16.67</v>
       </c>
       <c r="G77">
-        <v>36.36</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C78">
@@ -2679,21 +2679,21 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>63.64</v>
+        <v>16.67</v>
       </c>
       <c r="G78">
-        <v>36.36</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C79">
@@ -2706,21 +2706,21 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>63.64</v>
+        <v>16.67</v>
       </c>
       <c r="G79">
-        <v>36.36</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C80">
@@ -2733,21 +2733,21 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>63.64</v>
+        <v>16.67</v>
       </c>
       <c r="G80">
-        <v>36.36</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C81">
@@ -2760,21 +2760,21 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>63.64</v>
+        <v>16.67</v>
       </c>
       <c r="G81">
-        <v>36.36</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C82">
@@ -2787,21 +2787,21 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C83">
@@ -2814,21 +2814,21 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C84">
@@ -2841,21 +2841,21 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C85">
@@ -2868,21 +2868,21 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C86">
@@ -2895,21 +2895,21 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C87">
@@ -2922,21 +2922,21 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C88">
@@ -2949,21 +2949,21 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C89">
@@ -2976,21 +2976,21 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C90">
@@ -3003,21 +3003,21 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C91">
@@ -3030,21 +3030,21 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C92">
@@ -3057,21 +3057,21 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>21.21</v>
+        <v>37.5</v>
       </c>
       <c r="G92">
-        <v>3.03</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C93">
@@ -3084,21 +3084,21 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>21.21</v>
+        <v>37.5</v>
       </c>
       <c r="G93">
-        <v>3.03</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C94">
@@ -3111,21 +3111,21 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>21.21</v>
+        <v>37.5</v>
       </c>
       <c r="G94">
-        <v>3.03</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C95">
@@ -3138,21 +3138,21 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>21.21</v>
+        <v>33.33</v>
       </c>
       <c r="G95">
-        <v>3.03</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C96">
@@ -3165,21 +3165,21 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>21.21</v>
+        <v>33.33</v>
       </c>
       <c r="G96">
-        <v>3.03</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C97">
@@ -3192,21 +3192,21 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>21.21</v>
+        <v>33.33</v>
       </c>
       <c r="G97">
-        <v>3.03</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C98">
@@ -3219,21 +3219,21 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>21.21</v>
+        <v>33.33</v>
       </c>
       <c r="G98">
-        <v>3.03</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C99">
@@ -3246,21 +3246,21 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>21.21</v>
+        <v>33.33</v>
       </c>
       <c r="G99">
-        <v>3.03</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C100">
@@ -3270,24 +3270,24 @@
         <v>10</v>
       </c>
       <c r="E100">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>18.18</v>
+        <v>37.5</v>
       </c>
       <c r="G100">
-        <v>3.03</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C101">
@@ -3297,24 +3297,24 @@
         <v>11</v>
       </c>
       <c r="E101">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>18.18</v>
+        <v>45.83</v>
       </c>
       <c r="G101">
-        <v>3.03</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C102">
@@ -3327,21 +3327,21 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G102">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C103">
@@ -3354,21 +3354,21 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G103">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C104">
@@ -3381,21 +3381,21 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G104">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C105">
@@ -3408,21 +3408,21 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G105">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C106">
@@ -3435,21 +3435,21 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G106">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C107">
@@ -3462,21 +3462,21 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G107">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C108">
@@ -3489,21 +3489,21 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G108">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C109">
@@ -3516,21 +3516,21 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G109">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C110">
@@ -3543,21 +3543,21 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G110">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C111">
@@ -3570,21 +3570,21 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>50</v>
+        <v>54.55</v>
       </c>
       <c r="G111">
-        <v>8.33</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C112">
@@ -3597,21 +3597,21 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G112">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C113">
@@ -3624,21 +3624,21 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>45.45</v>
+        <v>3.33</v>
       </c>
       <c r="G113">
-        <v>36.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C114">
@@ -3651,21 +3651,21 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>45.45</v>
+        <v>3.33</v>
       </c>
       <c r="G114">
-        <v>36.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C115">
@@ -3678,21 +3678,21 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G115">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C116">
@@ -3705,21 +3705,21 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G116">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C117">
@@ -3732,21 +3732,21 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G117">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C118">
@@ -3759,21 +3759,21 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G118">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C119">
@@ -3786,21 +3786,21 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G119">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C120">
@@ -3813,21 +3813,21 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>45.45</v>
+        <v>3.33</v>
       </c>
       <c r="G120">
-        <v>36.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C121">
@@ -3840,21 +3840,21 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G121">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C122">
@@ -3867,21 +3867,21 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G122">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C123">
@@ -3894,21 +3894,21 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G123">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C124">
@@ -3921,21 +3921,21 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G124">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C125">
@@ -3948,21 +3948,21 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G125">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C126">
@@ -3975,21 +3975,21 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G126">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C127">
@@ -4002,21 +4002,21 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G127">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C128">
@@ -4029,21 +4029,21 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>16.67</v>
+        <v>19.44</v>
       </c>
       <c r="G128">
-        <v>79.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C129">
@@ -4056,21 +4056,21 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G129">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C130">
@@ -4083,21 +4083,21 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G130">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C131">
@@ -4110,21 +4110,21 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G131">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C132">
@@ -4137,21 +4137,21 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G132">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C133">
@@ -4164,21 +4164,21 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G133">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C134">
@@ -4191,21 +4191,21 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>59.09</v>
+        <v>36.36</v>
       </c>
       <c r="G134">
-        <v>31.82</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C135">
@@ -4218,21 +4218,21 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>59.09</v>
+        <v>36.36</v>
       </c>
       <c r="G135">
-        <v>31.82</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C136">
@@ -4245,21 +4245,21 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>59.09</v>
+        <v>36.36</v>
       </c>
       <c r="G136">
-        <v>31.82</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C137">
@@ -4272,21 +4272,21 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G137">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C138">
@@ -4299,21 +4299,21 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G138">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C139">
@@ -4326,21 +4326,21 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G139">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C140">
@@ -4353,21 +4353,21 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G140">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C141">
@@ -4380,21 +4380,21 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G141">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C142">
@@ -4407,21 +4407,21 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>16.67</v>
+        <v>25</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C143">
@@ -4431,24 +4431,24 @@
         <v>3</v>
       </c>
       <c r="E143">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>13.33</v>
+        <v>31.25</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C144">
@@ -4458,24 +4458,24 @@
         <v>4</v>
       </c>
       <c r="E144">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>13.33</v>
+        <v>25</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C145">
@@ -4485,24 +4485,24 @@
         <v>5</v>
       </c>
       <c r="E145">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>13.33</v>
+        <v>25</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C146">
@@ -4512,24 +4512,24 @@
         <v>6</v>
       </c>
       <c r="E146">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>13.33</v>
+        <v>31.25</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C147">
@@ -4542,21 +4542,21 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>16.67</v>
+        <v>31.25</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C148">
@@ -4566,24 +4566,24 @@
         <v>8</v>
       </c>
       <c r="E148">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>13.33</v>
+        <v>25</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C149">
@@ -4596,21 +4596,21 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>16.67</v>
+        <v>25</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C150">
@@ -4620,24 +4620,24 @@
         <v>10</v>
       </c>
       <c r="E150">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>13.33</v>
+        <v>25</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C151">
@@ -4647,24 +4647,24 @@
         <v>11</v>
       </c>
       <c r="E151">
-        <v>6.67</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C152">
@@ -4677,21 +4677,21 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G152">
-        <v>2.78</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C153">
@@ -4701,24 +4701,24 @@
         <v>3</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F153">
-        <v>27.78</v>
+        <v>42.31</v>
       </c>
       <c r="G153">
-        <v>2.78</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C154">
@@ -4728,24 +4728,24 @@
         <v>4</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F154">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G154">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C155">
@@ -4755,24 +4755,24 @@
         <v>5</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="F155">
-        <v>27.78</v>
+        <v>42.31</v>
       </c>
       <c r="G155">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C156">
@@ -4782,24 +4782,24 @@
         <v>6</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F156">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G156">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C157">
@@ -4809,24 +4809,24 @@
         <v>7</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F157">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G157">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C158">
@@ -4836,24 +4836,24 @@
         <v>8</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F158">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G158">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C159">
@@ -4863,24 +4863,24 @@
         <v>9</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F159">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G159">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C160">
@@ -4890,24 +4890,24 @@
         <v>10</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F160">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G160">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C161">
@@ -4917,24 +4917,24 @@
         <v>11</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F161">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G161">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C162">
@@ -4947,21 +4947,21 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>9.09</v>
+        <v>27.27</v>
       </c>
       <c r="G162">
-        <v>54.55</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C163">
@@ -4974,21 +4974,21 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>9.09</v>
+        <v>27.27</v>
       </c>
       <c r="G163">
-        <v>54.55</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C164">
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G164">
         <v>54.55</v>
@@ -5010,12 +5010,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C165">
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G165">
         <v>54.55</v>
@@ -5037,12 +5037,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C166">
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G166">
         <v>54.55</v>
@@ -5064,12 +5064,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C167">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G167">
         <v>54.55</v>
@@ -5091,12 +5091,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C168">
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G168">
         <v>54.55</v>
@@ -5118,12 +5118,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C169">
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G169">
         <v>54.55</v>
@@ -5145,12 +5145,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C170">
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G170">
         <v>54.55</v>
@@ -5172,12 +5172,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C171">
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G171">
         <v>54.55</v>
@@ -5199,12 +5199,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C172">
@@ -5217,21 +5217,21 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>31.25</v>
+        <v>20</v>
       </c>
       <c r="G172">
-        <v>56.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C173">
@@ -5244,21 +5244,21 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>31.25</v>
+        <v>20</v>
       </c>
       <c r="G173">
-        <v>56.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C174">
@@ -5271,21 +5271,21 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G174">
-        <v>62.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C175">
@@ -5298,21 +5298,21 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G175">
-        <v>62.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C176">
@@ -5325,21 +5325,21 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G176">
-        <v>62.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C177">
@@ -5352,21 +5352,21 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G177">
-        <v>62.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C178">
@@ -5379,21 +5379,21 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G178">
-        <v>62.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C179">
@@ -5406,21 +5406,21 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G179">
-        <v>62.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C180">
@@ -5433,21 +5433,21 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G180">
-        <v>62.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C181">
@@ -5460,21 +5460,21 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>25</v>
+        <v>18.18</v>
       </c>
       <c r="G181">
-        <v>62.5</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C182">
@@ -5487,21 +5487,21 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>50</v>
+        <v>46.67</v>
       </c>
       <c r="G182">
-        <v>28.85</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C183">
@@ -5514,21 +5514,21 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>51.92</v>
+        <v>50</v>
       </c>
       <c r="G183">
-        <v>26.92</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C184">
@@ -5541,21 +5541,21 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>51.92</v>
+        <v>50</v>
       </c>
       <c r="G184">
-        <v>26.92</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C185">
@@ -5568,21 +5568,21 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="G185">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C186">
@@ -5595,21 +5595,21 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="G186">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C187">
@@ -5622,21 +5622,21 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="G187">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C188">
@@ -5649,21 +5649,21 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="G188">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C189">
@@ -5676,21 +5676,21 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="G189">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C190">
@@ -5703,21 +5703,21 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="G190">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C191">
@@ -5730,21 +5730,21 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="G191">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C192">
@@ -5757,21 +5757,21 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>27.27</v>
+        <v>50</v>
       </c>
       <c r="G192">
-        <v>54.55</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C193">
@@ -5784,21 +5784,21 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>27.27</v>
+        <v>50</v>
       </c>
       <c r="G193">
-        <v>54.55</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C194">
@@ -5811,21 +5811,21 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G194">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C195">
@@ -5838,21 +5838,21 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G195">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C196">
@@ -5865,21 +5865,21 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G196">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C197">
@@ -5892,21 +5892,21 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G197">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C198">
@@ -5919,21 +5919,21 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G198">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C199">
@@ -5946,21 +5946,21 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G199">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C200">
@@ -5973,21 +5973,21 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G200">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C201">
@@ -6000,21 +6000,21 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G201">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C202">
@@ -6027,21 +6027,21 @@
         <v>0</v>
       </c>
       <c r="F202">
+        <v>25</v>
+      </c>
+      <c r="G202">
         <v>50</v>
-      </c>
-      <c r="G202">
-        <v>30</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C203">
@@ -6054,21 +6054,21 @@
         <v>0</v>
       </c>
       <c r="F203">
+        <v>25</v>
+      </c>
+      <c r="G203">
         <v>50</v>
-      </c>
-      <c r="G203">
-        <v>30</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C204">
@@ -6081,21 +6081,21 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G204">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C205">
@@ -6108,21 +6108,21 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G205">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C206">
@@ -6135,21 +6135,21 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G206">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C207">
@@ -6162,21 +6162,21 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G207">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C208">
@@ -6189,21 +6189,21 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G208">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C209">
@@ -6216,21 +6216,21 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G209">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C210">
@@ -6243,21 +6243,21 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G210">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C211">
@@ -6270,21 +6270,21 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>36.36</v>
+        <v>25</v>
       </c>
       <c r="G211">
-        <v>36.36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C212">
@@ -6297,21 +6297,21 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>60</v>
+        <v>30.3</v>
       </c>
       <c r="G212">
-        <v>26.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C213">
@@ -6324,21 +6324,21 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>56.67</v>
+        <v>30.3</v>
       </c>
       <c r="G213">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C214">
@@ -6348,24 +6348,24 @@
         <v>4</v>
       </c>
       <c r="E214">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>53.33</v>
+        <v>30.3</v>
       </c>
       <c r="G214">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C215">
@@ -6375,24 +6375,24 @@
         <v>5</v>
       </c>
       <c r="E215">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>56.67</v>
+        <v>30.3</v>
       </c>
       <c r="G215">
-        <v>26.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C216">
@@ -6402,24 +6402,24 @@
         <v>6</v>
       </c>
       <c r="E216">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>53.33</v>
+        <v>30.3</v>
       </c>
       <c r="G216">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C217">
@@ -6429,24 +6429,24 @@
         <v>7</v>
       </c>
       <c r="E217">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>53.33</v>
+        <v>30.3</v>
       </c>
       <c r="G217">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C218">
@@ -6456,24 +6456,24 @@
         <v>8</v>
       </c>
       <c r="E218">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>53.33</v>
+        <v>30.3</v>
       </c>
       <c r="G218">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C219">
@@ -6483,24 +6483,24 @@
         <v>9</v>
       </c>
       <c r="E219">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>53.33</v>
+        <v>30.3</v>
       </c>
       <c r="G219">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C220">
@@ -6510,24 +6510,24 @@
         <v>10</v>
       </c>
       <c r="E220">
-        <v>3.33</v>
+        <v>3.03</v>
       </c>
       <c r="F220">
-        <v>56.67</v>
+        <v>27.27</v>
       </c>
       <c r="G220">
-        <v>26.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C221">
@@ -6537,24 +6537,24 @@
         <v>11</v>
       </c>
       <c r="E221">
-        <v>3.33</v>
+        <v>3.03</v>
       </c>
       <c r="F221">
-        <v>56.67</v>
+        <v>27.27</v>
       </c>
       <c r="G221">
-        <v>26.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C222">
@@ -6567,21 +6567,21 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G222">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C223">
@@ -6591,24 +6591,24 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>4.55</v>
+        <v>2.7</v>
       </c>
       <c r="F223">
-        <v>27.27</v>
+        <v>2.7</v>
       </c>
       <c r="G223">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C224">
@@ -6618,24 +6618,24 @@
         <v>4</v>
       </c>
       <c r="E224">
-        <v>4.55</v>
+        <v>2.7</v>
       </c>
       <c r="F224">
-        <v>27.27</v>
+        <v>2.7</v>
       </c>
       <c r="G224">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C225">
@@ -6645,24 +6645,24 @@
         <v>5</v>
       </c>
       <c r="E225">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G225">
-        <v>59.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C226">
@@ -6672,24 +6672,24 @@
         <v>6</v>
       </c>
       <c r="E226">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G226">
-        <v>59.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C227">
@@ -6699,24 +6699,24 @@
         <v>7</v>
       </c>
       <c r="E227">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G227">
-        <v>59.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C228">
@@ -6726,24 +6726,24 @@
         <v>8</v>
       </c>
       <c r="E228">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G228">
-        <v>59.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C229">
@@ -6753,24 +6753,24 @@
         <v>9</v>
       </c>
       <c r="E229">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G229">
-        <v>59.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C230">
@@ -6780,24 +6780,24 @@
         <v>10</v>
       </c>
       <c r="E230">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>27.27</v>
+        <v>5.41</v>
       </c>
       <c r="G230">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C231">
@@ -6807,24 +6807,24 @@
         <v>11</v>
       </c>
       <c r="E231">
-        <v>4.55</v>
+        <v>2.7</v>
       </c>
       <c r="F231">
-        <v>27.27</v>
+        <v>2.7</v>
       </c>
       <c r="G231">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C232">
@@ -6837,21 +6837,21 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G232">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C233">
@@ -6864,21 +6864,21 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G233">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C234">
@@ -6891,21 +6891,21 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G234">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C235">
@@ -6918,21 +6918,21 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G235">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C236">
@@ -6945,21 +6945,21 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G236">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C237">
@@ -6972,21 +6972,21 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G237">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C238">
@@ -6999,21 +6999,21 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G238">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C239">
@@ -7026,21 +7026,21 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G239">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C240">
@@ -7050,24 +7050,24 @@
         <v>10</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F240">
-        <v>25</v>
+        <v>62.5</v>
       </c>
       <c r="G240">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C241">
@@ -7077,24 +7077,24 @@
         <v>11</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F241">
-        <v>25</v>
+        <v>62.5</v>
       </c>
       <c r="G241">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C242">
@@ -7107,21 +7107,21 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>51.52</v>
+        <v>42.42</v>
       </c>
       <c r="G242">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C243">
@@ -7134,21 +7134,21 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>51.52</v>
+        <v>42.42</v>
       </c>
       <c r="G243">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C244">
@@ -7158,24 +7158,24 @@
         <v>4</v>
       </c>
       <c r="E244">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>48.48</v>
+        <v>42.42</v>
       </c>
       <c r="G244">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C245">
@@ -7185,24 +7185,24 @@
         <v>5</v>
       </c>
       <c r="E245">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>45.45</v>
+        <v>42.42</v>
       </c>
       <c r="G245">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C246">
@@ -7212,24 +7212,24 @@
         <v>6</v>
       </c>
       <c r="E246">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>48.48</v>
+        <v>45.45</v>
       </c>
       <c r="G246">
-        <v>12.12</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C247">
@@ -7239,24 +7239,24 @@
         <v>7</v>
       </c>
       <c r="E247">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>48.48</v>
+        <v>45.45</v>
       </c>
       <c r="G247">
-        <v>12.12</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C248">
@@ -7266,24 +7266,24 @@
         <v>8</v>
       </c>
       <c r="E248">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>48.48</v>
+        <v>45.45</v>
       </c>
       <c r="G248">
-        <v>12.12</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C249">
@@ -7293,24 +7293,24 @@
         <v>9</v>
       </c>
       <c r="E249">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>48.48</v>
+        <v>45.45</v>
       </c>
       <c r="G249">
-        <v>12.12</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C250">
@@ -7320,24 +7320,24 @@
         <v>10</v>
       </c>
       <c r="E250">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>48.48</v>
+        <v>45.45</v>
       </c>
       <c r="G250">
-        <v>12.12</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C251">
@@ -7347,24 +7347,24 @@
         <v>11</v>
       </c>
       <c r="E251">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>48.48</v>
+        <v>45.45</v>
       </c>
       <c r="G251">
-        <v>9.09</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C252">
@@ -7377,21 +7377,21 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C253">
@@ -7404,21 +7404,21 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C254">
@@ -7431,21 +7431,21 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>16.22</v>
+        <v>38.67</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>50.67</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C255">
@@ -7455,24 +7455,24 @@
         <v>5</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F255">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C256">
@@ -7482,24 +7482,24 @@
         <v>6</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="F256">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G256">
-        <v>0</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C257">
@@ -7509,24 +7509,24 @@
         <v>7</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="F257">
-        <v>16.22</v>
+        <v>38.67</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C258">
@@ -7536,24 +7536,24 @@
         <v>8</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="F258">
-        <v>16.22</v>
+        <v>38.67</v>
       </c>
       <c r="G258">
-        <v>0</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C259">
@@ -7563,24 +7563,24 @@
         <v>9</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="F259">
-        <v>16.22</v>
+        <v>38.67</v>
       </c>
       <c r="G259">
-        <v>0</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C260">
@@ -7590,24 +7590,24 @@
         <v>10</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="F260">
-        <v>16.22</v>
+        <v>38.67</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C261">
@@ -7617,24 +7617,24 @@
         <v>11</v>
       </c>
       <c r="E261">
-        <v>2.7</v>
+        <v>1.33</v>
       </c>
       <c r="F261">
-        <v>13.51</v>
+        <v>38.67</v>
       </c>
       <c r="G261">
-        <v>0</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C262">
@@ -7647,21 +7647,21 @@
         <v>0</v>
       </c>
       <c r="F262">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G262">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C263">
@@ -7674,21 +7674,21 @@
         <v>0</v>
       </c>
       <c r="F263">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G263">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C264">
@@ -7701,21 +7701,21 @@
         <v>0</v>
       </c>
       <c r="F264">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G264">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C265">
@@ -7728,21 +7728,21 @@
         <v>0</v>
       </c>
       <c r="F265">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G265">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C266">
@@ -7755,21 +7755,21 @@
         <v>0</v>
       </c>
       <c r="F266">
-        <v>50</v>
+        <v>17.39</v>
       </c>
       <c r="G266">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C267">
@@ -7782,21 +7782,21 @@
         <v>0</v>
       </c>
       <c r="F267">
-        <v>50</v>
+        <v>17.39</v>
       </c>
       <c r="G267">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C268">
@@ -7809,21 +7809,21 @@
         <v>0</v>
       </c>
       <c r="F268">
-        <v>50</v>
+        <v>17.39</v>
       </c>
       <c r="G268">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C269">
@@ -7836,21 +7836,21 @@
         <v>0</v>
       </c>
       <c r="F269">
-        <v>50</v>
+        <v>17.39</v>
       </c>
       <c r="G269">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C270">
@@ -7863,21 +7863,21 @@
         <v>0</v>
       </c>
       <c r="F270">
-        <v>50</v>
+        <v>17.39</v>
       </c>
       <c r="G270">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C271">
@@ -7890,1090 +7890,10 @@
         <v>0</v>
       </c>
       <c r="F271">
-        <v>50</v>
+        <v>17.39</v>
       </c>
       <c r="G271">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C272">
-        <v>2023</v>
-      </c>
-      <c r="D272">
-        <v>2</v>
-      </c>
-      <c r="E272">
-        <v>0</v>
-      </c>
-      <c r="F272">
-        <v>33.33</v>
-      </c>
-      <c r="G272">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C273">
-        <v>2023</v>
-      </c>
-      <c r="D273">
-        <v>3</v>
-      </c>
-      <c r="E273">
-        <v>0</v>
-      </c>
-      <c r="F273">
-        <v>33.33</v>
-      </c>
-      <c r="G273">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C274">
-        <v>2023</v>
-      </c>
-      <c r="D274">
-        <v>4</v>
-      </c>
-      <c r="E274">
-        <v>0</v>
-      </c>
-      <c r="F274">
-        <v>33.33</v>
-      </c>
-      <c r="G274">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C275">
-        <v>2023</v>
-      </c>
-      <c r="D275">
-        <v>5</v>
-      </c>
-      <c r="E275">
-        <v>0</v>
-      </c>
-      <c r="F275">
-        <v>33.33</v>
-      </c>
-      <c r="G275">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C276">
-        <v>2023</v>
-      </c>
-      <c r="D276">
-        <v>6</v>
-      </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-      <c r="F276">
-        <v>33.33</v>
-      </c>
-      <c r="G276">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C277">
-        <v>2023</v>
-      </c>
-      <c r="D277">
-        <v>7</v>
-      </c>
-      <c r="E277">
-        <v>0</v>
-      </c>
-      <c r="F277">
-        <v>33.33</v>
-      </c>
-      <c r="G277">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C278">
-        <v>2023</v>
-      </c>
-      <c r="D278">
-        <v>8</v>
-      </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-      <c r="F278">
-        <v>33.33</v>
-      </c>
-      <c r="G278">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C279">
-        <v>2023</v>
-      </c>
-      <c r="D279">
-        <v>9</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>33.33</v>
-      </c>
-      <c r="G279">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C280">
-        <v>2023</v>
-      </c>
-      <c r="D280">
-        <v>10</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>33.33</v>
-      </c>
-      <c r="G280">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C281">
-        <v>2023</v>
-      </c>
-      <c r="D281">
-        <v>11</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-      <c r="F281">
-        <v>33.33</v>
-      </c>
-      <c r="G281">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C282">
-        <v>2023</v>
-      </c>
-      <c r="D282">
-        <v>2</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>7.69</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C283">
-        <v>2023</v>
-      </c>
-      <c r="D283">
-        <v>3</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>7.69</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C284">
-        <v>2023</v>
-      </c>
-      <c r="D284">
-        <v>4</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>7.69</v>
-      </c>
-      <c r="G284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C285">
-        <v>2023</v>
-      </c>
-      <c r="D285">
-        <v>5</v>
-      </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-      <c r="F285">
-        <v>7.69</v>
-      </c>
-      <c r="G285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C286">
-        <v>2023</v>
-      </c>
-      <c r="D286">
-        <v>6</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>7.69</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C287">
-        <v>2023</v>
-      </c>
-      <c r="D287">
-        <v>7</v>
-      </c>
-      <c r="E287">
-        <v>0</v>
-      </c>
-      <c r="F287">
-        <v>7.69</v>
-      </c>
-      <c r="G287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C288">
-        <v>2023</v>
-      </c>
-      <c r="D288">
-        <v>8</v>
-      </c>
-      <c r="E288">
-        <v>0</v>
-      </c>
-      <c r="F288">
-        <v>7.69</v>
-      </c>
-      <c r="G288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C289">
-        <v>2023</v>
-      </c>
-      <c r="D289">
-        <v>9</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-      <c r="F289">
-        <v>7.69</v>
-      </c>
-      <c r="G289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C290">
-        <v>2023</v>
-      </c>
-      <c r="D290">
-        <v>10</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>7.69</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C291">
-        <v>2023</v>
-      </c>
-      <c r="D291">
-        <v>11</v>
-      </c>
-      <c r="E291">
-        <v>0</v>
-      </c>
-      <c r="F291">
-        <v>7.69</v>
-      </c>
-      <c r="G291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C292">
-        <v>2023</v>
-      </c>
-      <c r="D292">
-        <v>2</v>
-      </c>
-      <c r="E292">
-        <v>0</v>
-      </c>
-      <c r="F292">
-        <v>29.33</v>
-      </c>
-      <c r="G292">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C293">
-        <v>2023</v>
-      </c>
-      <c r="D293">
-        <v>3</v>
-      </c>
-      <c r="E293">
-        <v>0</v>
-      </c>
-      <c r="F293">
-        <v>28</v>
-      </c>
-      <c r="G293">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C294">
-        <v>2023</v>
-      </c>
-      <c r="D294">
-        <v>4</v>
-      </c>
-      <c r="E294">
-        <v>0</v>
-      </c>
-      <c r="F294">
-        <v>29.33</v>
-      </c>
-      <c r="G294">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C295">
-        <v>2023</v>
-      </c>
-      <c r="D295">
-        <v>5</v>
-      </c>
-      <c r="E295">
-        <v>0</v>
-      </c>
-      <c r="F295">
-        <v>29.33</v>
-      </c>
-      <c r="G295">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C296">
-        <v>2023</v>
-      </c>
-      <c r="D296">
-        <v>6</v>
-      </c>
-      <c r="E296">
-        <v>1.33</v>
-      </c>
-      <c r="F296">
-        <v>28</v>
-      </c>
-      <c r="G296">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C297">
-        <v>2023</v>
-      </c>
-      <c r="D297">
-        <v>7</v>
-      </c>
-      <c r="E297">
-        <v>0</v>
-      </c>
-      <c r="F297">
-        <v>28</v>
-      </c>
-      <c r="G297">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C298">
-        <v>2023</v>
-      </c>
-      <c r="D298">
-        <v>8</v>
-      </c>
-      <c r="E298">
-        <v>0</v>
-      </c>
-      <c r="F298">
-        <v>28</v>
-      </c>
-      <c r="G298">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C299">
-        <v>2023</v>
-      </c>
-      <c r="D299">
-        <v>9</v>
-      </c>
-      <c r="E299">
-        <v>0</v>
-      </c>
-      <c r="F299">
-        <v>28</v>
-      </c>
-      <c r="G299">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C300">
-        <v>2023</v>
-      </c>
-      <c r="D300">
-        <v>10</v>
-      </c>
-      <c r="E300">
-        <v>0</v>
-      </c>
-      <c r="F300">
-        <v>29.33</v>
-      </c>
-      <c r="G300">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C301">
-        <v>2023</v>
-      </c>
-      <c r="D301">
-        <v>11</v>
-      </c>
-      <c r="E301">
-        <v>0</v>
-      </c>
-      <c r="F301">
-        <v>29.33</v>
-      </c>
-      <c r="G301">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C302">
-        <v>2023</v>
-      </c>
-      <c r="D302">
-        <v>2</v>
-      </c>
-      <c r="E302">
-        <v>0</v>
-      </c>
-      <c r="F302">
-        <v>39.13</v>
-      </c>
-      <c r="G302">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C303">
-        <v>2023</v>
-      </c>
-      <c r="D303">
-        <v>3</v>
-      </c>
-      <c r="E303">
-        <v>0</v>
-      </c>
-      <c r="F303">
-        <v>39.13</v>
-      </c>
-      <c r="G303">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C304">
-        <v>2023</v>
-      </c>
-      <c r="D304">
-        <v>4</v>
-      </c>
-      <c r="E304">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F304">
-        <v>30.43</v>
-      </c>
-      <c r="G304">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C305">
-        <v>2023</v>
-      </c>
-      <c r="D305">
-        <v>5</v>
-      </c>
-      <c r="E305">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F305">
-        <v>30.43</v>
-      </c>
-      <c r="G305">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C306">
-        <v>2023</v>
-      </c>
-      <c r="D306">
-        <v>6</v>
-      </c>
-      <c r="E306">
-        <v>4.35</v>
-      </c>
-      <c r="F306">
-        <v>34.78</v>
-      </c>
-      <c r="G306">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C307">
-        <v>2023</v>
-      </c>
-      <c r="D307">
-        <v>7</v>
-      </c>
-      <c r="E307">
-        <v>4.35</v>
-      </c>
-      <c r="F307">
-        <v>34.78</v>
-      </c>
-      <c r="G307">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C308">
-        <v>2023</v>
-      </c>
-      <c r="D308">
-        <v>8</v>
-      </c>
-      <c r="E308">
-        <v>4.35</v>
-      </c>
-      <c r="F308">
-        <v>34.78</v>
-      </c>
-      <c r="G308">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C309">
-        <v>2023</v>
-      </c>
-      <c r="D309">
-        <v>9</v>
-      </c>
-      <c r="E309">
-        <v>4.35</v>
-      </c>
-      <c r="F309">
-        <v>34.78</v>
-      </c>
-      <c r="G309">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C310">
-        <v>2023</v>
-      </c>
-      <c r="D310">
-        <v>10</v>
-      </c>
-      <c r="E310">
-        <v>4.35</v>
-      </c>
-      <c r="F310">
-        <v>34.78</v>
-      </c>
-      <c r="G310">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C311">
-        <v>2023</v>
-      </c>
-      <c r="D311">
-        <v>11</v>
-      </c>
-      <c r="E311">
-        <v>4.35</v>
-      </c>
-      <c r="F311">
-        <v>34.78</v>
-      </c>
-      <c r="G311">
-        <v>13.04</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9037,10 +7957,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="F2">
-        <v>93.33</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="3">
@@ -9059,10 +7979,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="F3">
-        <v>93.33</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="4">
@@ -9081,10 +8001,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="F4">
-        <v>93.33</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="5">
@@ -9103,10 +8023,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.67</v>
+        <v>17.78</v>
       </c>
       <c r="F5">
-        <v>93.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -9125,10 +8045,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.67</v>
+        <v>17.78</v>
       </c>
       <c r="F6">
-        <v>93.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -9144,13 +8064,13 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="E7">
-        <v>6.67</v>
+        <v>15.56</v>
       </c>
       <c r="F7">
-        <v>93.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -9166,13 +8086,13 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="E8">
-        <v>6.67</v>
+        <v>15.56</v>
       </c>
       <c r="F8">
-        <v>93.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -9188,13 +8108,13 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="E9">
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="F9">
-        <v>93.33</v>
+        <v>82.22</v>
       </c>
     </row>
     <row r="10">
@@ -9210,13 +8130,13 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="E10">
-        <v>6.67</v>
+        <v>15.56</v>
       </c>
       <c r="F10">
-        <v>93.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -9232,13 +8152,13 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="E11">
-        <v>6.67</v>
+        <v>15.56</v>
       </c>
       <c r="F11">
-        <v>93.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -9257,10 +8177,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>33.93</v>
+        <v>29.46</v>
       </c>
       <c r="F12">
-        <v>40.18</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="13">
@@ -9276,13 +8196,13 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>33.04</v>
+        <v>30.36</v>
       </c>
       <c r="F13">
-        <v>40.18</v>
+        <v>26.79</v>
       </c>
     </row>
     <row r="14">
@@ -9298,13 +8218,13 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>28.57</v>
+        <v>26.79</v>
       </c>
       <c r="F14">
-        <v>43.75</v>
+        <v>30.36</v>
       </c>
     </row>
     <row r="15">
@@ -9320,13 +8240,13 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E15">
+        <v>27.68</v>
+      </c>
+      <c r="F15">
         <v>29.46</v>
-      </c>
-      <c r="F15">
-        <v>43.75</v>
       </c>
     </row>
     <row r="16">
@@ -9342,13 +8262,13 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>29.46</v>
       </c>
       <c r="F16">
-        <v>43.75</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="17">
@@ -9364,13 +8284,13 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>29.46</v>
+        <v>30.36</v>
       </c>
       <c r="F17">
-        <v>43.75</v>
+        <v>26.79</v>
       </c>
     </row>
     <row r="18">
@@ -9386,13 +8306,13 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>29.46</v>
       </c>
       <c r="F18">
-        <v>43.75</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="19">
@@ -9408,13 +8328,13 @@
         <v>9</v>
       </c>
       <c r="D19">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>29.2</v>
       </c>
       <c r="F19">
-        <v>43.36</v>
+        <v>27.43</v>
       </c>
     </row>
     <row r="20">
@@ -9430,13 +8350,13 @@
         <v>10</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="E20">
-        <v>30.09</v>
+        <v>29.2</v>
       </c>
       <c r="F20">
-        <v>43.36</v>
+        <v>26.55</v>
       </c>
     </row>
     <row r="21">
@@ -9452,13 +8372,13 @@
         <v>11</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="E21">
         <v>28.7</v>
       </c>
       <c r="F21">
-        <v>43.48</v>
+        <v>26.09</v>
       </c>
     </row>
   </sheetData>
